--- a/MainTop/25.03.2024/Татуля_новые3.xlsx
+++ b/MainTop/25.03.2024/Татуля_новые3.xlsx
@@ -222,7 +222,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -244,7 +244,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -252,7 +252,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -260,7 +260,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -268,7 +268,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -276,7 +276,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -284,7 +284,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -292,7 +292,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -300,7 +300,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
